--- a/GIT.xlsx
+++ b/GIT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97200\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Data-Room\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87EB20D-444C-42FE-B7FC-0C7E504A0339}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E9BC1C-E46C-4F52-9DDE-5D0B2855DD4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7896" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{B0663C01-DFFC-47BA-B1BF-D1B0C1A4D42F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{B0663C01-DFFC-47BA-B1BF-D1B0C1A4D42F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>pwd : 현제 경로를 나타내 준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,24 +181,27 @@
   <si>
     <t>git log --pretty : 커밋 정보를 지정한 형식으로 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add-&gt;commit -&gt;push push origin  master-&gt;git push --set-upstream origin master</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -544,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3756DFE-B41C-4323-87A2-000F4E26869B}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -571,12 +574,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -584,12 +587,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -597,7 +600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -605,7 +608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -613,7 +616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -621,7 +624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -629,7 +632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -637,7 +640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -648,12 +651,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -661,7 +664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -669,7 +672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -677,7 +680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -685,34 +688,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="H18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="H20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8">
       <c r="H21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8">
       <c r="H22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8">
       <c r="H23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8">
       <c r="H24" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
